--- a/biology/Botanique/Fuchsia_jimenezii/Fuchsia_jimenezii.xlsx
+++ b/biology/Botanique/Fuchsia_jimenezii/Fuchsia_jimenezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuchsia jimenezii est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce fuchsia atypique se rencontre en Amérique du Sud. C'est l'unique espèce de la section Jimenezia, c'en est par conséquent aussi l'espèce type.
-Elle a été décrite en 1800 par les botanistes Dennis E. Breedlove (1939-2012), Paul Edward Berry et Peter Hamilton Raven. L'épithète spécifique jimenezii signifie « de Jimenez » en hommage au botaniste et agronome costaricain Alfonso Jimenez-Muñoz, de même que Jimenezia[3].
+Elle a été décrite en 1800 par les botanistes Dennis E. Breedlove (1939-2012), Paul Edward Berry et Peter Hamilton Raven. L'épithète spécifique jimenezii signifie « de Jimenez » en hommage au botaniste et agronome costaricain Alfonso Jimenez-Muñoz, de même que Jimenezia.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du Costa Rica et de Panama[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du Costa Rica et de Panama.
 </t>
         </is>
       </c>
